--- a/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250131120000</t>
+    <t>20250425120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:00:00+01:00</t>
+    <t>2025-04-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -142,6 +148,36 @@
     <t>Date de fin d'exploitation d'un code concept</t>
   </si>
   <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -775,7 +811,7 @@
     <t>103</t>
   </si>
   <si>
-    <t>Assistant robotisé à la marche</t>
+    <t>Assistance robotisée à la marche</t>
   </si>
   <si>
     <t>Exosquelette d'aide à la marche</t>
@@ -784,10 +820,10 @@
     <t>104</t>
   </si>
   <si>
-    <t>Assistant robotisé des membres supérieurs et de la préhension</t>
-  </si>
-  <si>
-    <t>Exosquelette d'assistance motorisé pour les membres supérieurs</t>
+    <t>Assistance robotisée des membres supérieurs et de la préhension</t>
+  </si>
+  <si>
+    <t>Dispositif d’assistance robotisée des membres supérieurs avec motorisation qui permet l’action avec enregistrement du mouvement en temps réel et rétroaction adaptée</t>
   </si>
   <si>
     <t>105</t>
@@ -802,7 +838,7 @@
     <t>Laboratoire d'analyse tridimensionnelle du mouvement, de la marche</t>
   </si>
   <si>
-    <t>Analyse cinétique, cinématique et électromyographique du mouvement</t>
+    <t>Systèmes combinés à haute valeur technologique permettant une analyse quantifiée, combinée et synchronisée du mouvement du membre inférieur intégrant une analyse cinétique en trois dimensions, une analyse cinématique tridimensionnelle, une analyse électromyographique dynamique et une analyse vidéo</t>
   </si>
   <si>
     <t>107</t>
@@ -820,7 +856,7 @@
     <t>109</t>
   </si>
   <si>
-    <t>Equipement de réadaptation pour obésité massive</t>
+    <t>Equipement de réadaptation obésité – bariatrique</t>
   </si>
   <si>
     <t>110</t>
@@ -889,7 +925,10 @@
     <t>120</t>
   </si>
   <si>
-    <t>Plateau de simulation de conduite automobile</t>
+    <t>Simulateur de conduite automobile</t>
+  </si>
+  <si>
+    <t>Dispositif combinant l’évaluation et la réadaptation des capacités visuelles, sensori-motrices, cognitives et comportementales pour préparer le retour à la conduite automobile avec couverture du champ visuel à 180° pour une immersion réaliste et une simulation du poste de conduite</t>
   </si>
   <si>
     <t>121</t>
@@ -898,6 +937,9 @@
     <t>Véhicules adaptés à la conduite en situation de handicap</t>
   </si>
   <si>
+    <t>Véhicule adapté par un intervenant spécialisé pour permettre une utilisation par une personne en situation de handicap : structure de l’habitacle, poste de conduite, pédalier…</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
@@ -1562,6 +1604,21 @@
   </si>
   <si>
     <t>Table de bloc opératoire obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Plateau de rééducation intensive des membres inférieurs</t>
+  </si>
+  <si>
+    <t>Dispositif d’assistance robotisée de la marche : dispositif de type robot de marche ou exosquelette équipé de moteurs aux articulations des membres inférieurs permettant de recréer un mouvement de marche</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Douche accessible aux personnes en fauteuil roulant</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1795,65 +1852,73 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1862,7 +1927,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1870,52 +1935,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +2032,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1933,2773 +2040,2803 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="D121" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>304</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="D122" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>307</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="D228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="D229" t="s" s="2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="D230" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="535">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250425120000</t>
+    <t>20250623120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T12:00:00+01:00</t>
+    <t>2025-06-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,9 @@
     <t>Count</t>
   </si>
   <si>
+    <t>229</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -1261,13 +1264,13 @@
     <t>173</t>
   </si>
   <si>
-    <t>SNP Array</t>
+    <t>Polymorphisme mononucléotidique</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
-    <t>CGH Array</t>
+    <t>Hybridation génomique comparative (HGC)</t>
   </si>
   <si>
     <t>175</t>
@@ -1613,9 +1616,6 @@
   </si>
   <si>
     <t>Dispositif d’assistance robotisée de la marche : dispositif de type robot de marche ou exosquelette équipé de moteurs aux articulations des membres inférieurs permettant de recréer un mouvement de marche</t>
-  </si>
-  <si>
-    <t>229</t>
   </si>
   <si>
     <t>Douche accessible aux personnes en fauteuil roulant</t>
@@ -1918,7 +1918,9 @@
       <c r="A22" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1935,94 +1937,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>21</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2040,2798 +2042,2798 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>533</v>
+        <v>34</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>534</v>

--- a/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250623120000</t>
+    <t>20250717120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:00:00+01:00</t>
+    <t>2025-07-17T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,1507 +118,1543 @@
     <t>Count</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>dateValid</t>
+  </si>
+  <si>
+    <t>date de validité d'un code concept</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>dateMaj</t>
+  </si>
+  <si>
+    <t>Date de mise à jour d'un code concept</t>
+  </si>
+  <si>
+    <t>dateFin</t>
+  </si>
+  <si>
+    <t>Date de fin d'exploitation d'un code concept</t>
+  </si>
+  <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
+  </si>
+  <si>
+    <t>finess</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/concept-properties#finess</t>
+  </si>
+  <si>
+    <t>Permet de définir les codes concepts utilisés par FINESS+</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Angiographie biplan rotationnelle (reconstruction scanner integrée)</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Angiographie monoplan</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Angioscope</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Arthroscope</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Autotransfuseur</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Baignoire stationnaire pour grands brûlés</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Bili-IRM</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Chambre à pression négative</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Chambre à pression positive (chambre stérile)</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Chambre d'isolement avec sas</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Chambre stérile</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>CEC assist circul-respiration (ECMO)</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>CEC assist circul-respiration (ECMO) pédiatrique</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Coloscanner (TDM)</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Colposcopie - laser</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Coronaroscanner</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>Cystographie pédiatrique</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Dacryoscanner</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>Défécographe</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Echographe transportable</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Echo-doppler artériel des membres</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Echo-doppler troncs supra-aortiq (vaisseaux cou)</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Echo-doppler ostéoarticulaire</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Echo-doppler transcrânien</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>Echo-doppler vasculaire d'effort</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Echo-doppler veineux des membres</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>Echo-endoscopie biliaire</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Echo-endoscopie pulmonaire</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>Echographe 3D</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>Echographe de contraste</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>Echo artères cervicocéphaliques (tête et cou)</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>Echographie obstétricale 1er trimestre</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>Echographie obstétricale 2nd et 3ème trimestres</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>Electroencéphalographe (EEG)</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>Electromyographe (EMG)</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>Endoscopie urologique (fibroscopie urétro-vésicale)</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>Entéro-IRM</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>Entéroscopie du grêle</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>Equipement pour réentraînement (cycloergomètre, tapis roulant)</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>Ergorameur</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>Explorations électrophysiologiques visuelles (PEV, ERG, EOG)</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>Fibroscopie broncho-pulmonaire (endoscopie bronchique)</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>Fibroscopie oeso-gastro-duodénale (FOGD) (endoscopie digestive haute)</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>Guidage échographique</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>Holter ECG</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>Holter tensionnel</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>Hystérographie</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>Imagerie pédiatrique sans sédation</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Imagerie vasculaire diagnostique et interventionnelle : artériographie</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>Impédance masse graisseuse</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>IRM obésité diamètre de 70 cm - bariatrique</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>IRM cardiaque</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>IRM corps entier</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>IRM foetale</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>Laboratoire du sommeil (polysomnographe)</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>Lithotripsie des glandes salivaires</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>Lithotriptie extracorporelle</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>Mesure pression loges musculaires (syndrome loges)</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>Neuro-imagerie fonctionnelle, spectroscopie, tractographie</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>Ostéodensitométrie (densitométrie osseuse)</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>Pachymètrie</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>Planche à massage cardiaque automatique</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>Polysomnographe portatif</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>Potentiels évoqués auditifs (PEA) et vestibulaires</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>Potentiels évoqués somesthésiques cérébraux (PESc)</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>Réaction en chaîne par polymérase (PCR)</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>Robot opératoire pour chirurgie robot assistée</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>Scanner dentaire</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>Spectromètre de masse</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>Table de bloc opératoire obésité (poids &gt; 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>Tomographie en cohérence optique</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>Tomographie par émissions de positons (TEP ou PET SCAN)</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>Tomographie par scinigraphie</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>Topographie cornéenne</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>Ventilation non invasive (VNI)</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>Ventilat non invasive à pression positive continue</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>PEA et vestibulaires sous anesthésie générale</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>Générateur d'hémodialyse</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>Echocardiographe 3D</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>Unité fixe de décontamination</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>Table de radiologie interventionnelle obésité (poids entre 150 et 250 kg) – bariatrique</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>Table de radiologie obésité (poids &gt; 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>Scanner (TDM) obésité diamètre de 80 cm - bariatrique</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>Scanner (TDM) obésité champ ouvert - bariatrique</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>IRM à champ ouvert</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>Table de bloc opératoire obésité (poids entre 150 et 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>Lit d'hospitalisation obésité (poids entre 250 et 350 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>Lit d'hospitalisation obésité (poids entre 350 et 450 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>Brancard obésité (poids entre 180 et 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>Brancard obésité (poids entre 250 et 350 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>ECMO transportable</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>Mammographe</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>Laboratoire microbiologie P3</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>Laboratoire microbiologie P4</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>Chambre d'isolement et de contention</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>Bassin thérapeutique pour balnéothérapie (&lt;25m2)</t>
+  </si>
+  <si>
+    <t>Ensemble de soins reposant sur l'immersion du corps ou d'une partie du corps dans un bassin d'eau (inférieur à 25 m²) à des fins thérapeutiques</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>Bassin thérapeutique pour balnéothérapie (&gt;=25m2)</t>
+  </si>
+  <si>
+    <t>Plateau technique spécialisé constitué par un bassin permettant l'immersion du corps ou d'une partie du corps dans un bassin d'eau (supérieur à 25 m²) à des fins thérapeutiques, équipé de dispositifs de levage et de rampes d'accès au bassin</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Salle aménagée pour la thérapie systémique</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Salle de stimulation multi-sensorielle</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Appareil d'isocinétisme</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Assistance robotisée à la marche</t>
+  </si>
+  <si>
+    <t>Exosquelette d'aide à la marche</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Assistance robotisée des membres supérieurs et de la préhension</t>
+  </si>
+  <si>
+    <t>Dispositif d’assistance robotisée des membres supérieurs avec motorisation qui permet l’action avec enregistrement du mouvement en temps réel et rétroaction adaptée</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Atelier d'appareillage</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Laboratoire d'analyse tridimensionnelle du mouvement, de la marche</t>
+  </si>
+  <si>
+    <t>Systèmes combinés à haute valeur technologique permettant une analyse quantifiée, combinée et synchronisée du mouvement du membre inférieur intégrant une analyse cinétique en trois dimensions, une analyse cinématique tridimensionnelle, une analyse électromyographique dynamique et une analyse vidéo</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Salle réa avec scopes, défibrillateur, matériel d'intub et ventil assistée</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Hotte à flux laminaire</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Equipement de réadaptation obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Studio pré-greffe et post-greffe</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Douche filiforme pour brûlés</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Equipement pour monitorage par télémétrie</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Prises d'oxygène en salle de rééducation</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Locaux adaptés à la désorientation temporo-spatiale</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Prises d'oxygène dans les chambres</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Appartement pour mise en situation d'autonomie</t>
+  </si>
+  <si>
+    <t>Structure disposant d'appartements qui permettent de tester les capacités d'autonomie d'une personne en situation de dépendance.</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Echographe cardiaque</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Monitoring cardiaque portatif</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Plateau technique neuropsycho cognitif</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Simulateur de conduite automobile</t>
+  </si>
+  <si>
+    <t>Dispositif combinant l’évaluation et la réadaptation des capacités visuelles, sensori-motrices, cognitives et comportementales pour préparer le retour à la conduite automobile avec couverture du champ visuel à 180° pour une immersion réaliste et une simulation du poste de conduite</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Véhicules adaptés à la conduite en situation de handicap</t>
+  </si>
+  <si>
+    <t>Véhicule adapté par un intervenant spécialisé pour permettre une utilisation par une personne en situation de handicap : structure de l’habitacle, poste de conduite, pédalier…</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Mur d'escalade</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Chambre domotisée</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Atelier de confection de prothèses</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Gymnase</t>
+  </si>
+  <si>
+    <t>Espace intérieur spécialement conçu pour la pratique de sports et d'activités physiques, notamment en groupe</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Cuisine thérapeutique et éducative</t>
+  </si>
+  <si>
+    <t>Cuisine ayant les meubles de différentes tailles ou à niveau variable, adaptés aux déficiences et incapacités des patients</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Système de traction halo-crânienne</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Plateforme multitest équilibre</t>
+  </si>
+  <si>
+    <t>Plateforme de posturographie statique et dynamique informatisée</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Plateau d'analyse informatisée du rachis</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Chambre et locaux sécurisés permettant la PEC des personnes à risque suicidaire</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Module fixe de décontamination</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Module transportable de décontamination</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Planche à masser cardiaque automatique</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Appareil de biologie délocalisé</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Incubateur de transport</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Respirateur néonatal et pédiatrique de transport</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Chambre carcérale</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>PSM1 (Poste Sanitaire Mobile niveau 1)</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>PSM2 (Poste Sanitaire Mobile niveau 2)</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>PSM3 (Poste Sanitaire Mobile niveau 3)</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Poste médical avancé (PMA)</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Appareil de mesure de la glycémie capillaire</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Oxymètre de pouls (SpO2)</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Système EOS</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Salle physiologique (salle nature accouchement)</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Cabine d'audiologie</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Espace de calme-retrait, apaisement</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>Jardin pédagogique et-ou thérapeutique</t>
+  </si>
+  <si>
+    <t>Courbe débit volume (CDV)</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Ferme pédagogique et-ou thérapeutique</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Plateau ou salle de rééducation</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Salle d'activité physique adaptée</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Equipement de géolocalisation des personnes vulnérables</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Equipement de télémédecine (chariot, cabine, équipement mobile…)</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>Chambre à double flux</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Rails de transfert</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Moniteur multiparamétrique</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Systèmes corporels d'alerte sans fil</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Fauteuil rotatoire</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Plateforme verticale subjective</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Appartement domotisé pour mise en situation d'autonomie</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare occupation simple</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare occupation multiple patient intubé</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare occupation multiple patient non intubé</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Cabine de cryothérapie</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>PCA ou autre injecteur automatique d'antalgiques</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>PCR multiplex (Film array)</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>Séquenceurs haut débit (NGS)</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Cytomètre de flux</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Atelier de confection d'orthèse</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Atelier de confection aide technique</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>Séquençage du génome viral</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Analyse automatique du sperme (CASA)</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Polymorphisme mononucléotidique</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Hybridation génomique comparative (HGC)</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Spectromètre de masse haute résolution</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Chromatographe haute performance en phase liquide</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Chromatographe en phase gazeuse</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Agrégomètre optique</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>Véhicules adaptés au transport de personnes à mobilité réduite</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Pupillomètre</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Accélérateur réchauffeur de sang</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Défibrillateur automatisé externe (DAE)</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Equipement d'oxygénothérapie de déambulation</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Dispositif de réadaptation à la marche par allègement du poids du corps</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>PSM pédiatriques (Poste Sanitaire Mobile)</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Lit fluidisé</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Table réfrigérée</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Case réfrigérée</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité (poids entre 150 et 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité (poids entre 250 et 350 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité (poids entre 350 et 450 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Arthromoteurs (genoux, épaules, coudes)</t>
+  </si>
+  <si>
+    <t>Attelles motorisées de mobilisation passive continue</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Appareils de renforcement musculaire</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Appareil d'ondes de choc pour traitement non invasif</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Appareil de massage par vacuo-aspiration</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Absorptiomètre obésité 70-80 cm (densitomètre bariatrique)</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Fauteuil obésité (poids entre 250 et 350 kg) bariatrique</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Holter tensionnel bariatrique</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Appareil d'imagerie volumétrique par faisceau conique (CBCT)</t>
+  </si>
+  <si>
+    <t>Reconstruction volumique (« Cone Beam »)</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Fauteuil dentaire adapté au handicap moteur</t>
+  </si>
+  <si>
+    <t>Fauteuil permettant à un handicapé moteur de s'installer afin de bénéficier de soins dentaires</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Laser rétinien</t>
+  </si>
+  <si>
+    <t>Laser qui émet une lumière de longueur d'onde spécifique qui a un effet de photocoagulation</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Laser Yag ophtalmologique</t>
+  </si>
+  <si>
+    <t>Laser qui émet une lumière de longueur d'onde spécifique, dont l'effet photodisruptif va permettre la découpe de tissus essentiellement dans le segment antérieur de l'oeil (capsulotomie, iridotomie)</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Atelier intégré d'appareillage</t>
+  </si>
+  <si>
+    <t>Atelier dédié qui permet la réalisation personnalisée de prothèses et d'orthèses rééducation complexe</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Imagerie par fluorescence</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Ultrason de haute intensité (HIFU)</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Dispositif mobile de traitement d'air</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Défibrillateur semi-automatique</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Equipement de téléradiographie</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Arthromoteurs membres inférieurs (genoux)</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Arthromoteurs membres supérieurs (épaules, coudes)</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Salle hybride</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Vidéo assistance</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Dermatoscope connecté</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Débitmètre de pointe adulte / enfant (peakflow)</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Otoscope connecté</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stéthoscope connecté</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Appareil de pressothérapie</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>Dispositif d'électrostimulation fonctionnelle</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Parcours de marche</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>ECG portable</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>IRM obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Scanner (TDM) obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Table d’accouchement obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Chambre adaptée obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Table de radiologie interventionnelle obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Table de bloc opératoire obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Plateau de rééducation intensive des membres inférieurs</t>
+  </si>
+  <si>
+    <t>Dispositif d’assistance robotisée de la marche : dispositif de type robot de marche ou exosquelette équipé de moteurs aux articulations des membres inférieurs permettant de recréer un mouvement de marche</t>
+  </si>
+  <si>
     <t>229</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>dateValid</t>
-  </si>
-  <si>
-    <t>date de validité d'un code concept</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>dateMaj</t>
-  </si>
-  <si>
-    <t>Date de mise à jour d'un code concept</t>
-  </si>
-  <si>
-    <t>dateFin</t>
-  </si>
-  <si>
-    <t>Date de fin d'exploitation d'un code concept</t>
-  </si>
-  <si>
-    <t>deprecationDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
-  </si>
-  <si>
-    <t>Date Concept was deprecated</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#status</t>
-  </si>
-  <si>
-    <t>A property that indicates the status of the concept.</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>retirementDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
-  </si>
-  <si>
-    <t>Date Concept was retired</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Angiographie biplan rotationnelle (reconstruction scanner integrée)</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>Angiographie monoplan</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>Angioscope</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>Arthroscope</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>Autotransfuseur</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>Baignoire stationnaire pour grands brûlés</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>Bili-IRM</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>Caisson hyperbare</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>Chambre à pression négative</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>Chambre à pression positive (chambre stérile)</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>Chambre d'isolement avec sas</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>Chambre stérile</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>CEC assist circul-respiration (ECMO)</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>CEC assist circul-respiration (ECMO) pédiatrique</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>Coloscanner (TDM)</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>Colposcopie - laser</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>Coronaroscanner</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>Cystographie pédiatrique</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>Dacryoscanner</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>Défécographe</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>Echographe transportable</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>Echo-doppler artériel des membres</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>Echo-doppler troncs supra-aortiq (vaisseaux cou)</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>Echo-doppler ostéoarticulaire</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>Echo-doppler transcrânien</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>Echo-doppler vasculaire d'effort</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>Echo-doppler veineux des membres</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>Echo-endoscopie biliaire</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>Echo-endoscopie pulmonaire</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>Echographe 3D</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>Echographe de contraste</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>Echo artères cervicocéphaliques (tête et cou)</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>Echographie obstétricale 1er trimestre</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>Echographie obstétricale 2nd et 3ème trimestres</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>Electroencéphalographe (EEG)</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>Electromyographe (EMG)</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>Endoscopie urologique (fibroscopie urétro-vésicale)</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>Entéro-IRM</t>
-  </si>
-  <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t>Entéroscopie du grêle</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>Equipement pour réentraînement (cycloergomètre, tapis roulant)</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>Ergorameur</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>Explorations électrophysiologiques visuelles (PEV, ERG, EOG)</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>Fibroscopie broncho-pulmonaire (endoscopie bronchique)</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>Fibroscopie oeso-gastro-duodénale (FOGD) (endoscopie digestive haute)</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>Guidage échographique</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>Holter ECG</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>Holter tensionnel</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>Hystérographie</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>Imagerie pédiatrique sans sédation</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>Imagerie vasculaire diagnostique et interventionnelle : artériographie</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>Impédance masse graisseuse</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>IRM obésité diamètre de 70 cm - bariatrique</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>IRM cardiaque</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>IRM corps entier</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>IRM foetale</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>Laboratoire du sommeil (polysomnographe)</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>Laser</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>Lithotripsie des glandes salivaires</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>Lithotriptie extracorporelle</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>Mesure pression loges musculaires (syndrome loges)</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>Neuro-imagerie fonctionnelle, spectroscopie, tractographie</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>Ostéodensitométrie (densitométrie osseuse)</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>Pachymètrie</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>Planche à massage cardiaque automatique</t>
-  </si>
-  <si>
-    <t>065</t>
-  </si>
-  <si>
-    <t>Polysomnographe portatif</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>Potentiels évoqués auditifs (PEA) et vestibulaires</t>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>Potentiels évoqués somesthésiques cérébraux (PESc)</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>Réaction en chaîne par polymérase (PCR)</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>Robot opératoire pour chirurgie robot assistée</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>Scanner dentaire</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>Spectromètre de masse</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>Table de bloc opératoire obésité (poids &gt; 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>Tomographie en cohérence optique</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>Tomographie par émissions de positons (TEP ou PET SCAN)</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>Tomographie par scinigraphie</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>Topographie cornéenne</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>Ventilation non invasive (VNI)</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
-    <t>Ventilat non invasive à pression positive continue</t>
-  </si>
-  <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>PEA et vestibulaires sous anesthésie générale</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>Générateur d'hémodialyse</t>
-  </si>
-  <si>
-    <t>081</t>
-  </si>
-  <si>
-    <t>Echocardiographe 3D</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>Unité fixe de décontamination</t>
-  </si>
-  <si>
-    <t>083</t>
-  </si>
-  <si>
-    <t>Table de radiologie interventionnelle obésité (poids entre 150 et 250 kg) – bariatrique</t>
-  </si>
-  <si>
-    <t>084</t>
-  </si>
-  <si>
-    <t>Table de radiologie obésité (poids &gt; 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>085</t>
-  </si>
-  <si>
-    <t>Scanner (TDM) obésité diamètre de 80 cm - bariatrique</t>
-  </si>
-  <si>
-    <t>086</t>
-  </si>
-  <si>
-    <t>Scanner (TDM) obésité champ ouvert - bariatrique</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>IRM à champ ouvert</t>
-  </si>
-  <si>
-    <t>088</t>
-  </si>
-  <si>
-    <t>Table de bloc opératoire obésité (poids entre 150 et 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>Lit d'hospitalisation obésité (poids entre 250 et 350 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>Lit d'hospitalisation obésité (poids entre 350 et 450 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>091</t>
-  </si>
-  <si>
-    <t>Brancard obésité (poids entre 180 et 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>092</t>
-  </si>
-  <si>
-    <t>Brancard obésité (poids entre 250 et 350 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>093</t>
-  </si>
-  <si>
-    <t>ECMO transportable</t>
-  </si>
-  <si>
-    <t>094</t>
-  </si>
-  <si>
-    <t>Mammographe</t>
-  </si>
-  <si>
-    <t>095</t>
-  </si>
-  <si>
-    <t>Laboratoire microbiologie P3</t>
-  </si>
-  <si>
-    <t>096</t>
-  </si>
-  <si>
-    <t>Laboratoire microbiologie P4</t>
-  </si>
-  <si>
-    <t>097</t>
-  </si>
-  <si>
-    <t>Chambre d'isolement et de contention</t>
-  </si>
-  <si>
-    <t>098</t>
-  </si>
-  <si>
-    <t>Bassin thérapeutique pour balnéothérapie (&lt;25m2)</t>
-  </si>
-  <si>
-    <t>Ensemble de soins reposant sur l'immersion du corps ou d'une partie du corps dans un bassin d'eau (inférieur à 25 m²) à des fins thérapeutiques</t>
-  </si>
-  <si>
-    <t>099</t>
-  </si>
-  <si>
-    <t>Bassin thérapeutique pour balnéothérapie (&gt;=25m2)</t>
-  </si>
-  <si>
-    <t>Plateau technique spécialisé constitué par un bassin permettant l'immersion du corps ou d'une partie du corps dans un bassin d'eau (supérieur à 25 m²) à des fins thérapeutiques, équipé de dispositifs de levage et de rampes d'accès au bassin</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Salle aménagée pour la thérapie systémique</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Salle de stimulation multi-sensorielle</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Appareil d'isocinétisme</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Assistance robotisée à la marche</t>
-  </si>
-  <si>
-    <t>Exosquelette d'aide à la marche</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Assistance robotisée des membres supérieurs et de la préhension</t>
-  </si>
-  <si>
-    <t>Dispositif d’assistance robotisée des membres supérieurs avec motorisation qui permet l’action avec enregistrement du mouvement en temps réel et rétroaction adaptée</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Atelier d'appareillage</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Laboratoire d'analyse tridimensionnelle du mouvement, de la marche</t>
-  </si>
-  <si>
-    <t>Systèmes combinés à haute valeur technologique permettant une analyse quantifiée, combinée et synchronisée du mouvement du membre inférieur intégrant une analyse cinétique en trois dimensions, une analyse cinématique tridimensionnelle, une analyse électromyographique dynamique et une analyse vidéo</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Salle réa avec scopes, défibrillateur, matériel d'intub et ventil assistée</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Hotte à flux laminaire</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Equipement de réadaptation obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Studio pré-greffe et post-greffe</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Douche filiforme pour brûlés</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Equipement pour monitorage par télémétrie</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Prises d'oxygène en salle de rééducation</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Locaux adaptés à la désorientation temporo-spatiale</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Prises d'oxygène dans les chambres</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Appartement pour mise en situation d'autonomie</t>
-  </si>
-  <si>
-    <t>Structure disposant d'appartements qui permettent de tester les capacités d'autonomie d'une personne en situation de dépendance.</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Echographe cardiaque</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Monitoring cardiaque portatif</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Plateau technique neuropsycho cognitif</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Simulateur de conduite automobile</t>
-  </si>
-  <si>
-    <t>Dispositif combinant l’évaluation et la réadaptation des capacités visuelles, sensori-motrices, cognitives et comportementales pour préparer le retour à la conduite automobile avec couverture du champ visuel à 180° pour une immersion réaliste et une simulation du poste de conduite</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Véhicules adaptés à la conduite en situation de handicap</t>
-  </si>
-  <si>
-    <t>Véhicule adapté par un intervenant spécialisé pour permettre une utilisation par une personne en situation de handicap : structure de l’habitacle, poste de conduite, pédalier…</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Mur d'escalade</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Chambre domotisée</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Atelier de confection de prothèses</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Gymnase</t>
-  </si>
-  <si>
-    <t>Espace intérieur spécialement conçu pour la pratique de sports et d'activités physiques, notamment en groupe</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Cuisine thérapeutique et éducative</t>
-  </si>
-  <si>
-    <t>Cuisine ayant les meubles de différentes tailles ou à niveau variable, adaptés aux déficiences et incapacités des patients</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Système de traction halo-crânienne</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Plateforme multitest équilibre</t>
-  </si>
-  <si>
-    <t>Plateforme de posturographie statique et dynamique informatisée</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Plateau d'analyse informatisée du rachis</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Chambre et locaux sécurisés permettant la PEC des personnes à risque suicidaire</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Module fixe de décontamination</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Module transportable de décontamination</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>Planche à masser cardiaque automatique</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Appareil de biologie délocalisé</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Incubateur de transport</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Respirateur néonatal et pédiatrique de transport</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Chambre carcérale</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>PSM1 (Poste Sanitaire Mobile niveau 1)</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>PSM2 (Poste Sanitaire Mobile niveau 2)</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>PSM3 (Poste Sanitaire Mobile niveau 3)</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Poste médical avancé (PMA)</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>Appareil de mesure de la glycémie capillaire</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Oxymètre de pouls (SpO2)</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Système EOS</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Salle physiologique (salle nature accouchement)</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Cabine d'audiologie</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Espace de calme-retrait, apaisement</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Jardin pédagogique et-ou thérapeutique</t>
-  </si>
-  <si>
-    <t>Courbe débit volume (CDV)</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Ferme pédagogique et-ou thérapeutique</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Plateau ou salle de rééducation</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Salle d'activité physique adaptée</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>Equipement de géolocalisation des personnes vulnérables</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Equipement de télémédecine (chariot, cabine, équipement mobile…)</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Chambre à double flux</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Rails de transfert</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>Moniteur multiparamétrique</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Systèmes corporels d'alerte sans fil</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Fauteuil rotatoire</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Plateforme verticale subjective</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Appartement domotisé pour mise en situation d'autonomie</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Caisson hyperbare occupation simple</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Caisson hyperbare occupation multiple patient intubé</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>Caisson hyperbare occupation multiple patient non intubé</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Cabine de cryothérapie</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>PCA ou autre injecteur automatique d'antalgiques</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>PCR multiplex (Film array)</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>Séquenceurs haut débit (NGS)</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Cytomètre de flux</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Atelier de confection d'orthèse</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>Atelier de confection aide technique</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>Séquençage du génome viral</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Analyse automatique du sperme (CASA)</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>Polymorphisme mononucléotidique</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Hybridation génomique comparative (HGC)</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Spectromètre de masse haute résolution</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>Chromatographe haute performance en phase liquide</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Chromatographe en phase gazeuse</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>Agrégomètre optique</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>Véhicules adaptés au transport de personnes à mobilité réduite</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Pupillomètre</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>Accélérateur réchauffeur de sang</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>Défibrillateur automatisé externe (DAE)</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>Equipement d'oxygénothérapie de déambulation</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Dispositif de réadaptation à la marche par allègement du poids du corps</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>PSM pédiatriques (Poste Sanitaire Mobile)</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>Lit fluidisé</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>Table réfrigérée</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>Case réfrigérée</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Table de coronarographie obésité (poids entre 150 et 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Table de coronarographie obésité (poids entre 250 et 350 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Table de coronarographie obésité (poids entre 350 et 450 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>Arthromoteurs (genoux, épaules, coudes)</t>
-  </si>
-  <si>
-    <t>Attelles motorisées de mobilisation passive continue</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>Appareils de renforcement musculaire</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>Appareil d'ondes de choc pour traitement non invasif</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Appareil de massage par vacuo-aspiration</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Absorptiomètre obésité 70-80 cm (densitomètre bariatrique)</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>Fauteuil obésité (poids entre 250 et 350 kg) bariatrique</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>Holter tensionnel bariatrique</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Appareil d'imagerie volumétrique par faisceau conique (CBCT)</t>
-  </si>
-  <si>
-    <t>Reconstruction volumique (« Cone Beam »)</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Fauteuil dentaire adapté au handicap moteur</t>
-  </si>
-  <si>
-    <t>Fauteuil permettant à un handicapé moteur de s'installer afin de bénéficier de soins dentaires</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Laser rétinien</t>
-  </si>
-  <si>
-    <t>Laser qui émet une lumière de longueur d'onde spécifique qui a un effet de photocoagulation</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Laser Yag ophtalmologique</t>
-  </si>
-  <si>
-    <t>Laser qui émet une lumière de longueur d'onde spécifique, dont l'effet photodisruptif va permettre la découpe de tissus essentiellement dans le segment antérieur de l'oeil (capsulotomie, iridotomie)</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Atelier intégré d'appareillage</t>
-  </si>
-  <si>
-    <t>Atelier dédié qui permet la réalisation personnalisée de prothèses et d'orthèses rééducation complexe</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Imagerie par fluorescence</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>Ultrason de haute intensité (HIFU)</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Dispositif mobile de traitement d'air</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Défibrillateur semi-automatique</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Equipement de téléradiographie</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Arthromoteurs membres inférieurs (genoux)</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>Arthromoteurs membres supérieurs (épaules, coudes)</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Salle hybride</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>Vidéo assistance</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Dermatoscope connecté</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>Débitmètre de pointe adulte / enfant (peakflow)</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Otoscope connecté</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stéthoscope connecté</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>Appareil de pressothérapie</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>Dispositif d'électrostimulation fonctionnelle</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>Parcours de marche</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>ECG portable</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>IRM obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>Scanner (TDM) obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>Table d’accouchement obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>Table de coronarographie obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>Chambre adaptée obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>Table de radiologie interventionnelle obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>Table de bloc opératoire obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>Plateau de rééducation intensive des membres inférieurs</t>
-  </si>
-  <si>
-    <t>Dispositif d’assistance robotisée de la marche : dispositif de type robot de marche ou exosquelette équipé de moteurs aux articulations des membres inférieurs permettant de recréer un mouvement de marche</t>
-  </si>
-  <si>
     <t>Douche accessible aux personnes en fauteuil roulant</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Imagerie par Résonance Magnétique</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Tomographie par Émission Monophotonique</t>
+  </si>
+  <si>
+    <t>Tomographie par Émission de Positons</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2027,6 +2063,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2034,7 +2084,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2042,2803 +2092,2851 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B230" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B234" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="D230" s="2"/>
+      <c r="C234" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="D234" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="549">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250717120000</t>
+    <t>20250918120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T12:00:00+01:00</t>
+    <t>2025-09-18T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1279,10 +1279,16 @@
     <t>Polymorphisme mononucléotidique</t>
   </si>
   <si>
+    <t>Equipement qui permet d'identifier une différence génétique entre individus d’une même population qui se traduit par la variation d’une seule base (nucléotide) dans une séquence d’ADN, l’allèle minoritaire ayant une fréquence d’au moins 1 %. Ce type de variation, appelé aussi SNP (single nucleotide polymorphism), est très courant dans le génome humain et constitue une des principales sources de diversité individuelle. (Description scientifique de la nature et de la fréquence des SNP)</t>
+  </si>
+  <si>
     <t>174</t>
   </si>
   <si>
     <t>Hybridation génomique comparative (HGC)</t>
+  </si>
+  <si>
+    <t>Technique de cytogénétique moléculaire qui permet de repérer les variations du nombre de copies d’ADN (comme les duplications ou délétions) en comparant l’ADN d’un échantillon à un ADN de référence par marquage fluorescent. Cette méthode, utilisée en diagnostic notamment oncologique ou pour des anomalies constitutionnelles, offre une résolution plus fine qu’un caryotype classique.</t>
   </si>
   <si>
     <t>175</t>
@@ -4202,29 +4208,33 @@
       <c r="C174" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="D174" s="2"/>
+      <c r="D174" t="s" s="2">
+        <v>421</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
         <v>62</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="D175" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="D175" t="s" s="2">
+        <v>424</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
         <v>62</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D176" s="2"/>
     </row>
@@ -4233,10 +4243,10 @@
         <v>62</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -4245,10 +4255,10 @@
         <v>62</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -4257,10 +4267,10 @@
         <v>62</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D179" s="2"/>
     </row>
@@ -4269,10 +4279,10 @@
         <v>62</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D180" s="2"/>
     </row>
@@ -4281,10 +4291,10 @@
         <v>62</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D181" s="2"/>
     </row>
@@ -4293,10 +4303,10 @@
         <v>62</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D182" s="2"/>
     </row>
@@ -4305,10 +4315,10 @@
         <v>62</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D183" s="2"/>
     </row>
@@ -4317,10 +4327,10 @@
         <v>62</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D184" s="2"/>
     </row>
@@ -4329,10 +4339,10 @@
         <v>62</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D185" s="2"/>
     </row>
@@ -4341,10 +4351,10 @@
         <v>62</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D186" s="2"/>
     </row>
@@ -4353,10 +4363,10 @@
         <v>62</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D187" s="2"/>
     </row>
@@ -4365,10 +4375,10 @@
         <v>62</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D188" s="2"/>
     </row>
@@ -4377,10 +4387,10 @@
         <v>62</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D189" s="2"/>
     </row>
@@ -4389,10 +4399,10 @@
         <v>62</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D190" s="2"/>
     </row>
@@ -4401,10 +4411,10 @@
         <v>62</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D191" s="2"/>
     </row>
@@ -4413,10 +4423,10 @@
         <v>62</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D192" s="2"/>
     </row>
@@ -4425,13 +4435,13 @@
         <v>62</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="194">
@@ -4439,10 +4449,10 @@
         <v>62</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D194" s="2"/>
     </row>
@@ -4451,10 +4461,10 @@
         <v>62</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -4463,10 +4473,10 @@
         <v>62</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D196" s="2"/>
     </row>
@@ -4475,10 +4485,10 @@
         <v>62</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D197" s="2"/>
     </row>
@@ -4487,10 +4497,10 @@
         <v>62</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -4499,10 +4509,10 @@
         <v>62</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -4511,13 +4521,13 @@
         <v>62</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201">
@@ -4525,13 +4535,13 @@
         <v>62</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202">
@@ -4539,13 +4549,13 @@
         <v>62</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="203">
@@ -4553,13 +4563,13 @@
         <v>62</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204">
@@ -4567,13 +4577,13 @@
         <v>62</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="205">
@@ -4581,10 +4591,10 @@
         <v>62</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -4593,10 +4603,10 @@
         <v>62</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D206" s="2"/>
     </row>
@@ -4605,10 +4615,10 @@
         <v>62</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D207" s="2"/>
     </row>
@@ -4617,10 +4627,10 @@
         <v>62</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D208" s="2"/>
     </row>
@@ -4629,10 +4639,10 @@
         <v>62</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D209" s="2"/>
     </row>
@@ -4641,10 +4651,10 @@
         <v>62</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D210" s="2"/>
     </row>
@@ -4653,10 +4663,10 @@
         <v>62</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D211" s="2"/>
     </row>
@@ -4665,10 +4675,10 @@
         <v>62</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D212" s="2"/>
     </row>
@@ -4677,10 +4687,10 @@
         <v>62</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D213" s="2"/>
     </row>
@@ -4689,10 +4699,10 @@
         <v>62</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D214" s="2"/>
     </row>
@@ -4701,10 +4711,10 @@
         <v>62</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D215" s="2"/>
     </row>
@@ -4713,10 +4723,10 @@
         <v>62</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -4725,10 +4735,10 @@
         <v>62</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D217" s="2"/>
     </row>
@@ -4737,10 +4747,10 @@
         <v>62</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D218" s="2"/>
     </row>
@@ -4749,10 +4759,10 @@
         <v>62</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D219" s="2"/>
     </row>
@@ -4761,10 +4771,10 @@
         <v>62</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D220" s="2"/>
     </row>
@@ -4773,10 +4783,10 @@
         <v>62</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D221" s="2"/>
     </row>
@@ -4785,10 +4795,10 @@
         <v>62</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D222" s="2"/>
     </row>
@@ -4797,10 +4807,10 @@
         <v>62</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D223" s="2"/>
     </row>
@@ -4809,10 +4819,10 @@
         <v>62</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D224" s="2"/>
     </row>
@@ -4821,10 +4831,10 @@
         <v>62</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D225" s="2"/>
     </row>
@@ -4833,10 +4843,10 @@
         <v>62</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D226" s="2"/>
     </row>
@@ -4845,10 +4855,10 @@
         <v>62</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D227" s="2"/>
     </row>
@@ -4857,10 +4867,10 @@
         <v>62</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D228" s="2"/>
     </row>
@@ -4869,13 +4879,13 @@
         <v>62</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="230">
@@ -4883,10 +4893,10 @@
         <v>62</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D230" s="2"/>
     </row>
@@ -4895,10 +4905,10 @@
         <v>62</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D231" s="2"/>
     </row>
@@ -4907,10 +4917,10 @@
         <v>62</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D232" s="2"/>
     </row>
@@ -4919,10 +4929,10 @@
         <v>62</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D233" s="2"/>
     </row>
@@ -4934,7 +4944,7 @@
         <v>34</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D234" s="2"/>
     </row>

--- a/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R212-Equipement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="556">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250918120000</t>
+    <t>20251222120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:00:00+01:00</t>
+    <t>2025-12-22T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,1549 +118,1570 @@
     <t>Count</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>dateValid</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/concept-properties#dateValid</t>
+  </si>
+  <si>
+    <t>date de validité d'un code concept</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>dateMaj</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/concept-properties#dateMaj</t>
+  </si>
+  <si>
+    <t>Date de mise à jour d'un code concept</t>
+  </si>
+  <si>
+    <t>dateFin</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/concept-properties#dateFin</t>
+  </si>
+  <si>
+    <t>Date de fin d'exploitation d'un code concept</t>
+  </si>
+  <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
+  </si>
+  <si>
+    <t>finess</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/concept-properties#finess</t>
+  </si>
+  <si>
+    <t>Permet de définir les codes concepts utilisés par FINESS+</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Angiographie biplan rotationnelle (reconstruction scanner integrée)</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Angiographie monoplan</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Angioscope</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Arthroscope</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Autotransfuseur</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Baignoire stationnaire pour grands brûlés</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Bili-IRM</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Chambre à pression négative</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Chambre à pression positive (chambre stérile)</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Chambre d'isolement avec sas</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Chambre stérile</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>CEC assist circul-respiration (ECMO)</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>CEC assist circul-respiration (ECMO) pédiatrique</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Coloscanner (TDM)</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Colposcopie - laser</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Coronaroscanner</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>Cystographie pédiatrique</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Dacryoscanner</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>Défécographe</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Echographe transportable</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Echo-doppler artériel des membres</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Echo-doppler troncs supra-aortiq (vaisseaux cou)</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Echo-doppler ostéoarticulaire</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Echo-doppler transcrânien</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>Echo-doppler vasculaire d'effort</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Echo-doppler veineux des membres</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>Echo-endoscopie biliaire</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Echo-endoscopie pulmonaire</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>Echographe 3D</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>Echographe de contraste</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>Echo artères cervicocéphaliques (tête et cou)</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>Echographie obstétricale 1er trimestre</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>Echographie obstétricale 2nd et 3ème trimestres</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>Electroencéphalographe (EEG)</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>Electromyographe (EMG)</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>Endoscopie urologique (fibroscopie urétro-vésicale)</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>Entéro-IRM</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>Entéroscopie du grêle</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>Equipement pour réentraînement (cycloergomètre, tapis roulant)</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>Ergorameur</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>Explorations électrophysiologiques visuelles (PEV, ERG, EOG)</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>Fibroscopie broncho-pulmonaire (endoscopie bronchique)</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>Fibroscopie oeso-gastro-duodénale (FOGD) (endoscopie digestive haute)</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>Guidage échographique</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>Holter ECG</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>Holter tensionnel</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>Hystérographie</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>Imagerie pédiatrique sans sédation</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Imagerie vasculaire diagnostique et interventionnelle : artériographie</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>Impédance masse graisseuse</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>IRM obésité diamètre de 70 cm - bariatrique</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>IRM cardiaque</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>IRM corps entier</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>IRM foetale</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>Laboratoire du sommeil (polysomnographe)</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>Lithotripsie des glandes salivaires</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>Lithotriptie extracorporelle</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>Mesure pression loges musculaires (syndrome loges)</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>Neuro-imagerie fonctionnelle, spectroscopie, tractographie</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>Ostéodensitométrie (densitométrie osseuse)</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>Pachymètrie</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>Planche à massage cardiaque automatique</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>Polysomnographe portatif</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>Potentiels évoqués auditifs (PEA) et vestibulaires</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>Potentiels évoqués somesthésiques cérébraux (PESc)</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>Réaction en chaîne par polymérase (PCR)</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>Robot opératoire pour chirurgie robot assistée</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>Scanner dentaire</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>Spectromètre de masse</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>Table de bloc opératoire obésité (poids &gt; 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>Tomographie en cohérence optique</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>Tomographie par émissions de positons (TEP ou PET SCAN)</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>Tomographie par scinigraphie</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>Topographie cornéenne</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>Ventilation non invasive (VNI)</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>Ventilat non invasive à pression positive continue</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>PEA et vestibulaires sous anesthésie générale</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>Générateur d'hémodialyse</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>Echocardiographe 3D</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>Unité fixe de décontamination</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>Table de radiologie interventionnelle obésité (poids entre 150 et 250 kg) – bariatrique</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>Table de radiologie obésité (poids &gt; 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>Scanner (TDM) obésité diamètre de 80 cm - bariatrique</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>Scanner (TDM) obésité champ ouvert - bariatrique</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>IRM à champ ouvert</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>Table de bloc opératoire obésité (poids entre 150 et 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>Lit d'hospitalisation obésité (poids entre 250 et 350 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>Lit d'hospitalisation obésité (poids entre 350 et 450 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>Brancard obésité (poids entre 180 et 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>Brancard obésité (poids entre 250 et 350 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>ECMO transportable</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>Mammographe</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>Laboratoire microbiologie P3</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>Laboratoire microbiologie P4</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>Chambre d'isolement et de contention</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>Bassin thérapeutique pour balnéothérapie (&lt;25m2)</t>
+  </si>
+  <si>
+    <t>Ensemble de soins reposant sur l'immersion du corps ou d'une partie du corps dans un bassin d'eau (inférieur à 25 m²) à des fins thérapeutiques</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>Bassin thérapeutique pour balnéothérapie (&gt;=25m2)</t>
+  </si>
+  <si>
+    <t>Plateau technique spécialisé constitué par un bassin permettant l'immersion du corps ou d'une partie du corps dans un bassin d'eau (supérieur à 25 m²) à des fins thérapeutiques, équipé de dispositifs de levage et de rampes d'accès au bassin</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Salle aménagée pour la thérapie systémique</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Salle de stimulation multi-sensorielle</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Appareil d'isocinétisme</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Assistance robotisée à la marche</t>
+  </si>
+  <si>
+    <t>Exosquelette d'aide à la marche</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Assistance robotisée des membres supérieurs et de la préhension</t>
+  </si>
+  <si>
+    <t>Dispositif d’assistance robotisée des membres supérieurs avec motorisation qui permet l’action avec enregistrement du mouvement en temps réel et rétroaction adaptée</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Atelier d'appareillage</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Laboratoire d'analyse tridimensionnelle du mouvement, de la marche</t>
+  </si>
+  <si>
+    <t>Systèmes combinés à haute valeur technologique permettant une analyse quantifiée, combinée et synchronisée du mouvement du membre inférieur intégrant une analyse cinétique en trois dimensions, une analyse cinématique tridimensionnelle, une analyse électromyographique dynamique et une analyse vidéo</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Salle réa avec scopes, défibrillateur, matériel d'intub et ventil assistée</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Hotte à flux laminaire</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Equipement de réadaptation obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Studio pré-greffe et post-greffe</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Douche filiforme pour brûlés</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Equipement pour monitorage par télémétrie</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Prises d'oxygène en salle de rééducation</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Locaux adaptés à la désorientation temporo-spatiale</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Prises d'oxygène dans les chambres</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Appartement pour mise en situation d'autonomie</t>
+  </si>
+  <si>
+    <t>Structure disposant d'appartements qui permettent de tester les capacités d'autonomie d'une personne en situation de dépendance.</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Echographe cardiaque</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Monitoring cardiaque portatif</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Plateau technique neuropsycho cognitif</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Simulateur de conduite automobile</t>
+  </si>
+  <si>
+    <t>Dispositif combinant l’évaluation et la réadaptation des capacités visuelles, sensori-motrices, cognitives et comportementales pour préparer le retour à la conduite automobile avec couverture du champ visuel à 180° pour une immersion réaliste et une simulation du poste de conduite</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Véhicules adaptés à la conduite en situation de handicap</t>
+  </si>
+  <si>
+    <t>Véhicule adapté par un intervenant spécialisé pour permettre une utilisation par une personne en situation de handicap : structure de l’habitacle, poste de conduite, pédalier…</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Mur d'escalade</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Chambre domotisée</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Atelier de confection de prothèses</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Gymnase</t>
+  </si>
+  <si>
+    <t>Espace intérieur spécialement conçu pour la pratique de sports et d'activités physiques, notamment en groupe</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Cuisine thérapeutique et éducative</t>
+  </si>
+  <si>
+    <t>Cuisine ayant les meubles de différentes tailles ou à niveau variable, adaptés aux déficiences et incapacités des patients</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Système de traction halo-crânienne</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Plateforme multitest équilibre</t>
+  </si>
+  <si>
+    <t>Plateforme de posturographie statique et dynamique informatisée</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Plateau d'analyse informatisée du rachis</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Chambre et locaux sécurisés permettant la PEC des personnes à risque suicidaire</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Module fixe de décontamination</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Module transportable de décontamination</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Planche à masser cardiaque automatique</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Appareil de biologie délocalisé</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Incubateur de transport</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Respirateur néonatal et pédiatrique de transport</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Chambre carcérale</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>PSM1 (Poste Sanitaire Mobile niveau 1)</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>PSM2 (Poste Sanitaire Mobile niveau 2)</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>PSM3 (Poste Sanitaire Mobile niveau 3)</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Poste médical avancé (PMA)</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Appareil de mesure de la glycémie capillaire</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Oxymètre de pouls (SpO2)</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Système EOS</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Salle physiologique (salle nature accouchement)</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Cabine d'audiologie</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Espace de calme-retrait, apaisement</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>Jardin pédagogique et-ou thérapeutique</t>
+  </si>
+  <si>
+    <t>Courbe débit volume (CDV)</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Ferme pédagogique et-ou thérapeutique</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Plateau ou salle de rééducation</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Salle d'activité physique adaptée</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Equipement de géolocalisation des personnes vulnérables</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Equipement de télémédecine (chariot, cabine, équipement mobile…)</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>Chambre à double flux</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Rails de transfert</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Moniteur multiparamétrique</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Systèmes corporels d'alerte sans fil</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>Fauteuil rotatoire</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Plateforme verticale subjective</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Appartement domotisé pour mise en situation d'autonomie</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare occupation simple</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare occupation multiple patient intubé</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Caisson hyperbare occupation multiple patient non intubé</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Cabine de cryothérapie</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>PCA ou autre injecteur automatique d'antalgiques</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>PCR multiplex (Film array)</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>Séquenceurs haut débit (NGS)</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Cytomètre de flux</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Atelier de confection d'orthèse</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>Atelier de confection aide technique</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>Séquençage du génome viral</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Analyse automatique du sperme (CASA)</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Polymorphisme mononucléotidique</t>
+  </si>
+  <si>
+    <t>Equipement qui permet d'identifier une différence génétique entre individus d’une même population qui se traduit par la variation d’une seule base (nucléotide) dans une séquence d’ADN, l’allèle minoritaire ayant une fréquence d’au moins 1 %. Ce type de variation, appelé aussi SNP (single nucleotide polymorphism), est très courant dans le génome humain et constitue une des principales sources de diversité individuelle. (Description scientifique de la nature et de la fréquence des SNP)</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Hybridation génomique comparative (HGC)</t>
+  </si>
+  <si>
+    <t>Technique de cytogénétique moléculaire qui permet de repérer les variations du nombre de copies d’ADN (comme les duplications ou délétions) en comparant l’ADN d’un échantillon à un ADN de référence par marquage fluorescent. Cette méthode, utilisée en diagnostic notamment oncologique ou pour des anomalies constitutionnelles, offre une résolution plus fine qu’un caryotype classique.</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Spectromètre de masse haute résolution</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>Chromatographe haute performance en phase liquide</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Chromatographe en phase gazeuse</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Agrégomètre optique</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>Véhicules adaptés au transport de personnes à mobilité réduite</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Pupillomètre</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>Accélérateur réchauffeur de sang</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Défibrillateur automatisé externe (DAE)</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Equipement d'oxygénothérapie de déambulation</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Dispositif de réadaptation à la marche par allègement du poids du corps</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>PSM pédiatriques (Poste Sanitaire Mobile)</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Lit fluidisé</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Table réfrigérée</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>Case réfrigérée</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité (poids entre 150 et 250 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité (poids entre 250 et 350 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité (poids entre 350 et 450 kg) - bariatrique</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>Arthromoteurs (genoux, épaules, coudes)</t>
+  </si>
+  <si>
+    <t>Attelles motorisées de mobilisation passive continue</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Appareils de renforcement musculaire</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Appareil d'ondes de choc pour traitement non invasif</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Appareil de massage par vacuo-aspiration</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Absorptiomètre obésité 70-80 cm (densitomètre bariatrique)</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Fauteuil obésité (poids entre 250 et 350 kg) bariatrique</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Holter tensionnel bariatrique</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Appareil d'imagerie volumétrique par faisceau conique (CBCT)</t>
+  </si>
+  <si>
+    <t>Reconstruction volumique (« Cone Beam »)</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Fauteuil dentaire adapté au handicap moteur</t>
+  </si>
+  <si>
+    <t>Fauteuil permettant à un handicapé moteur de s'installer afin de bénéficier de soins dentaires</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Laser rétinien</t>
+  </si>
+  <si>
+    <t>Laser qui émet une lumière de longueur d'onde spécifique qui a un effet de photocoagulation</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Laser Yag ophtalmologique</t>
+  </si>
+  <si>
+    <t>Laser qui émet une lumière de longueur d'onde spécifique, dont l'effet photodisruptif va permettre la découpe de tissus essentiellement dans le segment antérieur de l'oeil (capsulotomie, iridotomie)</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Atelier intégré d'appareillage</t>
+  </si>
+  <si>
+    <t>Atelier dédié qui permet la réalisation personnalisée de prothèses et d'orthèses rééducation complexe</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Imagerie par fluorescence</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>Ultrason de haute intensité (HIFU)</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Dispositif mobile de traitement d'air</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Défibrillateur semi-automatique</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Equipement de téléradiographie</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Arthromoteurs membres inférieurs (genoux)</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>Arthromoteurs membres supérieurs (épaules, coudes)</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Salle hybride</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Vidéo assistance</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>Dermatoscope connecté</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Débitmètre de pointe adulte / enfant (peakflow)</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Otoscope connecté</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stéthoscope connecté</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Appareil de pressothérapie</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>Dispositif d'électrostimulation fonctionnelle</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>Parcours de marche</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>ECG portable</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>IRM obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Scanner (TDM) obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Table d’accouchement obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Table de coronarographie obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Chambre adaptée obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Table de radiologie interventionnelle obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>Table de bloc opératoire obésité – bariatrique</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>Plateau de rééducation intensive des membres inférieurs</t>
+  </si>
+  <si>
+    <t>Dispositif d’assistance robotisée de la marche : dispositif de type robot de marche ou exosquelette équipé de moteurs aux articulations des membres inférieurs permettant de recréer un mouvement de marche</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Douche accessible aux personnes en fauteuil roulant</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Imagerie par Résonance Magnétique</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Tomographie par Émission Monophotonique</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>dateValid</t>
-  </si>
-  <si>
-    <t>date de validité d'un code concept</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>dateMaj</t>
-  </si>
-  <si>
-    <t>Date de mise à jour d'un code concept</t>
-  </si>
-  <si>
-    <t>dateFin</t>
-  </si>
-  <si>
-    <t>Date de fin d'exploitation d'un code concept</t>
-  </si>
-  <si>
-    <t>deprecationDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
-  </si>
-  <si>
-    <t>Date Concept was deprecated</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#status</t>
-  </si>
-  <si>
-    <t>A property that indicates the status of the concept.</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>retirementDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
-  </si>
-  <si>
-    <t>Date Concept was retired</t>
-  </si>
-  <si>
-    <t>finess</t>
-  </si>
-  <si>
-    <t>https://smt.esante.gouv.fr/fhir/concept-properties#finess</t>
-  </si>
-  <si>
-    <t>Permet de définir les codes concepts utilisés par FINESS+</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Angiographie biplan rotationnelle (reconstruction scanner integrée)</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>Angiographie monoplan</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>Angioscope</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>Arthroscope</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>Autotransfuseur</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>Baignoire stationnaire pour grands brûlés</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>Bili-IRM</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>Caisson hyperbare</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>Chambre à pression négative</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>Chambre à pression positive (chambre stérile)</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>Chambre d'isolement avec sas</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>Chambre stérile</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>CEC assist circul-respiration (ECMO)</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>CEC assist circul-respiration (ECMO) pédiatrique</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>Coloscanner (TDM)</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>Colposcopie - laser</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>Coronaroscanner</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>Cystographie pédiatrique</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>Dacryoscanner</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>Défécographe</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>Echographe transportable</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>Echo-doppler artériel des membres</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>Echo-doppler troncs supra-aortiq (vaisseaux cou)</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>Echo-doppler ostéoarticulaire</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>Echo-doppler transcrânien</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>Echo-doppler vasculaire d'effort</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>Echo-doppler veineux des membres</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>Echo-endoscopie biliaire</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>Echo-endoscopie pulmonaire</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>Echographe 3D</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>Echographe de contraste</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>Echo artères cervicocéphaliques (tête et cou)</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>Echographie obstétricale 1er trimestre</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>Echographie obstétricale 2nd et 3ème trimestres</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>Electroencéphalographe (EEG)</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>Electromyographe (EMG)</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>Endoscopie urologique (fibroscopie urétro-vésicale)</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>Entéro-IRM</t>
-  </si>
-  <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t>Entéroscopie du grêle</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>Equipement pour réentraînement (cycloergomètre, tapis roulant)</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>Ergorameur</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>Explorations électrophysiologiques visuelles (PEV, ERG, EOG)</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>Fibroscopie broncho-pulmonaire (endoscopie bronchique)</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>Fibroscopie oeso-gastro-duodénale (FOGD) (endoscopie digestive haute)</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>Guidage échographique</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>Holter ECG</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>Holter tensionnel</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>Hystérographie</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>Imagerie pédiatrique sans sédation</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>Imagerie vasculaire diagnostique et interventionnelle : artériographie</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>Impédance masse graisseuse</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>IRM obésité diamètre de 70 cm - bariatrique</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>IRM cardiaque</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>IRM corps entier</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>IRM foetale</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>Laboratoire du sommeil (polysomnographe)</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>Laser</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>Lithotripsie des glandes salivaires</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>Lithotriptie extracorporelle</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>Mesure pression loges musculaires (syndrome loges)</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>Neuro-imagerie fonctionnelle, spectroscopie, tractographie</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>Ostéodensitométrie (densitométrie osseuse)</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>Pachymètrie</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>Planche à massage cardiaque automatique</t>
-  </si>
-  <si>
-    <t>065</t>
-  </si>
-  <si>
-    <t>Polysomnographe portatif</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>Potentiels évoqués auditifs (PEA) et vestibulaires</t>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>Potentiels évoqués somesthésiques cérébraux (PESc)</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>Réaction en chaîne par polymérase (PCR)</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>Robot opératoire pour chirurgie robot assistée</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>Scanner dentaire</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>Spectromètre de masse</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>Table de bloc opératoire obésité (poids &gt; 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>Tomographie en cohérence optique</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>Tomographie par émissions de positons (TEP ou PET SCAN)</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>Tomographie par scinigraphie</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>Topographie cornéenne</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>Ventilation non invasive (VNI)</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
-    <t>Ventilat non invasive à pression positive continue</t>
-  </si>
-  <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>PEA et vestibulaires sous anesthésie générale</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>Générateur d'hémodialyse</t>
-  </si>
-  <si>
-    <t>081</t>
-  </si>
-  <si>
-    <t>Echocardiographe 3D</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>Unité fixe de décontamination</t>
-  </si>
-  <si>
-    <t>083</t>
-  </si>
-  <si>
-    <t>Table de radiologie interventionnelle obésité (poids entre 150 et 250 kg) – bariatrique</t>
-  </si>
-  <si>
-    <t>084</t>
-  </si>
-  <si>
-    <t>Table de radiologie obésité (poids &gt; 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>085</t>
-  </si>
-  <si>
-    <t>Scanner (TDM) obésité diamètre de 80 cm - bariatrique</t>
-  </si>
-  <si>
-    <t>086</t>
-  </si>
-  <si>
-    <t>Scanner (TDM) obésité champ ouvert - bariatrique</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>IRM à champ ouvert</t>
-  </si>
-  <si>
-    <t>088</t>
-  </si>
-  <si>
-    <t>Table de bloc opératoire obésité (poids entre 150 et 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>Lit d'hospitalisation obésité (poids entre 250 et 350 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>Lit d'hospitalisation obésité (poids entre 350 et 450 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>091</t>
-  </si>
-  <si>
-    <t>Brancard obésité (poids entre 180 et 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>092</t>
-  </si>
-  <si>
-    <t>Brancard obésité (poids entre 250 et 350 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>093</t>
-  </si>
-  <si>
-    <t>ECMO transportable</t>
-  </si>
-  <si>
-    <t>094</t>
-  </si>
-  <si>
-    <t>Mammographe</t>
-  </si>
-  <si>
-    <t>095</t>
-  </si>
-  <si>
-    <t>Laboratoire microbiologie P3</t>
-  </si>
-  <si>
-    <t>096</t>
-  </si>
-  <si>
-    <t>Laboratoire microbiologie P4</t>
-  </si>
-  <si>
-    <t>097</t>
-  </si>
-  <si>
-    <t>Chambre d'isolement et de contention</t>
-  </si>
-  <si>
-    <t>098</t>
-  </si>
-  <si>
-    <t>Bassin thérapeutique pour balnéothérapie (&lt;25m2)</t>
-  </si>
-  <si>
-    <t>Ensemble de soins reposant sur l'immersion du corps ou d'une partie du corps dans un bassin d'eau (inférieur à 25 m²) à des fins thérapeutiques</t>
-  </si>
-  <si>
-    <t>099</t>
-  </si>
-  <si>
-    <t>Bassin thérapeutique pour balnéothérapie (&gt;=25m2)</t>
-  </si>
-  <si>
-    <t>Plateau technique spécialisé constitué par un bassin permettant l'immersion du corps ou d'une partie du corps dans un bassin d'eau (supérieur à 25 m²) à des fins thérapeutiques, équipé de dispositifs de levage et de rampes d'accès au bassin</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Salle aménagée pour la thérapie systémique</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Salle de stimulation multi-sensorielle</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Appareil d'isocinétisme</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Assistance robotisée à la marche</t>
-  </si>
-  <si>
-    <t>Exosquelette d'aide à la marche</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Assistance robotisée des membres supérieurs et de la préhension</t>
-  </si>
-  <si>
-    <t>Dispositif d’assistance robotisée des membres supérieurs avec motorisation qui permet l’action avec enregistrement du mouvement en temps réel et rétroaction adaptée</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Atelier d'appareillage</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Laboratoire d'analyse tridimensionnelle du mouvement, de la marche</t>
-  </si>
-  <si>
-    <t>Systèmes combinés à haute valeur technologique permettant une analyse quantifiée, combinée et synchronisée du mouvement du membre inférieur intégrant une analyse cinétique en trois dimensions, une analyse cinématique tridimensionnelle, une analyse électromyographique dynamique et une analyse vidéo</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Salle réa avec scopes, défibrillateur, matériel d'intub et ventil assistée</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Hotte à flux laminaire</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Equipement de réadaptation obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Studio pré-greffe et post-greffe</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Douche filiforme pour brûlés</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Equipement pour monitorage par télémétrie</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Prises d'oxygène en salle de rééducation</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Locaux adaptés à la désorientation temporo-spatiale</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Prises d'oxygène dans les chambres</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Appartement pour mise en situation d'autonomie</t>
-  </si>
-  <si>
-    <t>Structure disposant d'appartements qui permettent de tester les capacités d'autonomie d'une personne en situation de dépendance.</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Echographe cardiaque</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Monitoring cardiaque portatif</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Plateau technique neuropsycho cognitif</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Simulateur de conduite automobile</t>
-  </si>
-  <si>
-    <t>Dispositif combinant l’évaluation et la réadaptation des capacités visuelles, sensori-motrices, cognitives et comportementales pour préparer le retour à la conduite automobile avec couverture du champ visuel à 180° pour une immersion réaliste et une simulation du poste de conduite</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Véhicules adaptés à la conduite en situation de handicap</t>
-  </si>
-  <si>
-    <t>Véhicule adapté par un intervenant spécialisé pour permettre une utilisation par une personne en situation de handicap : structure de l’habitacle, poste de conduite, pédalier…</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Mur d'escalade</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Chambre domotisée</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Atelier de confection de prothèses</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Gymnase</t>
-  </si>
-  <si>
-    <t>Espace intérieur spécialement conçu pour la pratique de sports et d'activités physiques, notamment en groupe</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Cuisine thérapeutique et éducative</t>
-  </si>
-  <si>
-    <t>Cuisine ayant les meubles de différentes tailles ou à niveau variable, adaptés aux déficiences et incapacités des patients</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Système de traction halo-crânienne</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Plateforme multitest équilibre</t>
-  </si>
-  <si>
-    <t>Plateforme de posturographie statique et dynamique informatisée</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Plateau d'analyse informatisée du rachis</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Chambre et locaux sécurisés permettant la PEC des personnes à risque suicidaire</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Module fixe de décontamination</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Module transportable de décontamination</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>Planche à masser cardiaque automatique</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Appareil de biologie délocalisé</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Incubateur de transport</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>Respirateur néonatal et pédiatrique de transport</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Chambre carcérale</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>PSM1 (Poste Sanitaire Mobile niveau 1)</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>PSM2 (Poste Sanitaire Mobile niveau 2)</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>PSM3 (Poste Sanitaire Mobile niveau 3)</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Poste médical avancé (PMA)</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>Appareil de mesure de la glycémie capillaire</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Oxymètre de pouls (SpO2)</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Système EOS</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Salle physiologique (salle nature accouchement)</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Cabine d'audiologie</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Espace de calme-retrait, apaisement</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Jardin pédagogique et-ou thérapeutique</t>
-  </si>
-  <si>
-    <t>Courbe débit volume (CDV)</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Ferme pédagogique et-ou thérapeutique</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Plateau ou salle de rééducation</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Salle d'activité physique adaptée</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>Equipement de géolocalisation des personnes vulnérables</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Equipement de télémédecine (chariot, cabine, équipement mobile…)</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Chambre à double flux</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Rails de transfert</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>Moniteur multiparamétrique</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Systèmes corporels d'alerte sans fil</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Fauteuil rotatoire</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Plateforme verticale subjective</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Appartement domotisé pour mise en situation d'autonomie</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Caisson hyperbare occupation simple</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Caisson hyperbare occupation multiple patient intubé</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>Caisson hyperbare occupation multiple patient non intubé</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Cabine de cryothérapie</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>PCA ou autre injecteur automatique d'antalgiques</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>PCR multiplex (Film array)</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>Séquenceurs haut débit (NGS)</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>Cytomètre de flux</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Atelier de confection d'orthèse</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>Atelier de confection aide technique</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>Séquençage du génome viral</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Analyse automatique du sperme (CASA)</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>Polymorphisme mononucléotidique</t>
-  </si>
-  <si>
-    <t>Equipement qui permet d'identifier une différence génétique entre individus d’une même population qui se traduit par la variation d’une seule base (nucléotide) dans une séquence d’ADN, l’allèle minoritaire ayant une fréquence d’au moins 1 %. Ce type de variation, appelé aussi SNP (single nucleotide polymorphism), est très courant dans le génome humain et constitue une des principales sources de diversité individuelle. (Description scientifique de la nature et de la fréquence des SNP)</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Hybridation génomique comparative (HGC)</t>
-  </si>
-  <si>
-    <t>Technique de cytogénétique moléculaire qui permet de repérer les variations du nombre de copies d’ADN (comme les duplications ou délétions) en comparant l’ADN d’un échantillon à un ADN de référence par marquage fluorescent. Cette méthode, utilisée en diagnostic notamment oncologique ou pour des anomalies constitutionnelles, offre une résolution plus fine qu’un caryotype classique.</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>Spectromètre de masse haute résolution</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>Chromatographe haute performance en phase liquide</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>Chromatographe en phase gazeuse</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>Agrégomètre optique</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>Véhicules adaptés au transport de personnes à mobilité réduite</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Pupillomètre</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>Accélérateur réchauffeur de sang</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>Défibrillateur automatisé externe (DAE)</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>Equipement d'oxygénothérapie de déambulation</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>Dispositif de réadaptation à la marche par allègement du poids du corps</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>PSM pédiatriques (Poste Sanitaire Mobile)</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>Lit fluidisé</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>Table réfrigérée</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>Case réfrigérée</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Table de coronarographie obésité (poids entre 150 et 250 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Table de coronarographie obésité (poids entre 250 et 350 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Table de coronarographie obésité (poids entre 350 et 450 kg) - bariatrique</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>Arthromoteurs (genoux, épaules, coudes)</t>
-  </si>
-  <si>
-    <t>Attelles motorisées de mobilisation passive continue</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>Appareils de renforcement musculaire</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>Appareil d'ondes de choc pour traitement non invasif</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Appareil de massage par vacuo-aspiration</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Absorptiomètre obésité 70-80 cm (densitomètre bariatrique)</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>Fauteuil obésité (poids entre 250 et 350 kg) bariatrique</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>Holter tensionnel bariatrique</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Appareil d'imagerie volumétrique par faisceau conique (CBCT)</t>
-  </si>
-  <si>
-    <t>Reconstruction volumique (« Cone Beam »)</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Fauteuil dentaire adapté au handicap moteur</t>
-  </si>
-  <si>
-    <t>Fauteuil permettant à un handicapé moteur de s'installer afin de bénéficier de soins dentaires</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Laser rétinien</t>
-  </si>
-  <si>
-    <t>Laser qui émet une lumière de longueur d'onde spécifique qui a un effet de photocoagulation</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Laser Yag ophtalmologique</t>
-  </si>
-  <si>
-    <t>Laser qui émet une lumière de longueur d'onde spécifique, dont l'effet photodisruptif va permettre la découpe de tissus essentiellement dans le segment antérieur de l'oeil (capsulotomie, iridotomie)</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Atelier intégré d'appareillage</t>
-  </si>
-  <si>
-    <t>Atelier dédié qui permet la réalisation personnalisée de prothèses et d'orthèses rééducation complexe</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Imagerie par fluorescence</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>Ultrason de haute intensité (HIFU)</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Dispositif mobile de traitement d'air</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Défibrillateur semi-automatique</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>Equipement de téléradiographie</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>Arthromoteurs membres inférieurs (genoux)</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>Arthromoteurs membres supérieurs (épaules, coudes)</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Salle hybride</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>Vidéo assistance</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Dermatoscope connecté</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>Débitmètre de pointe adulte / enfant (peakflow)</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Otoscope connecté</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stéthoscope connecté</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>Appareil de pressothérapie</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>Dispositif d'électrostimulation fonctionnelle</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>Parcours de marche</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>ECG portable</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>IRM obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>Scanner (TDM) obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>Table d’accouchement obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>Table de coronarographie obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>Chambre adaptée obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>Table de radiologie interventionnelle obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>Table de bloc opératoire obésité – bariatrique</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>Plateau de rééducation intensive des membres inférieurs</t>
-  </si>
-  <si>
-    <t>Dispositif d’assistance robotisée de la marche : dispositif de type robot de marche ou exosquelette équipé de moteurs aux articulations des membres inférieurs permettant de recréer un mouvement de marche</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>Douche accessible aux personnes en fauteuil roulant</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Imagerie par Résonance Magnétique</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>Tomographie par Émission Monophotonique</t>
-  </si>
-  <si>
     <t>Tomographie par Émission de Positons</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>Espace de consommation de drogues injectables</t>
+  </si>
+  <si>
+    <t>Espace de consommation de drogues à fumer</t>
   </si>
 </sst>
 </file>
@@ -1995,92 +2016,98 @@
       <c r="A2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2117,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2098,2855 +2125,2879 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D174" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B234" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B236" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="D234" s="2"/>
+      <c r="C236" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="D236" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
